--- a/top-k_influence-propagation/f-e/INF_f-e_4.5b(0.01-0.1)_0.01-0.1_.xlsx
+++ b/top-k_influence-propagation/f-e/INF_f-e_4.5b(0.01-0.1)_0.01-0.1_.xlsx
@@ -4,20 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="6" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Networks" sheetId="1" r:id="rId1"/>
-    <sheet name="rattus_genetic_multiplex.edges" sheetId="11" r:id="rId2"/>
-    <sheet name="lazega-Law-Firm_multiplex.edges" sheetId="10" r:id="rId3"/>
-    <sheet name="humanHIV1_genetic_multiplex.edg" sheetId="9" r:id="rId4"/>
-    <sheet name="hepatitusC_genetic_multiplex.ed" sheetId="8" r:id="rId5"/>
-    <sheet name="drosophila_genetic_multiplex.ed" sheetId="7" r:id="rId6"/>
-    <sheet name="cKM-Physicians-Innovation_multi" sheetId="6" r:id="rId7"/>
-    <sheet name="celegans_genetic_multiplex.edge" sheetId="5" r:id="rId8"/>
-    <sheet name="celegans_connectome_multiplex.e" sheetId="4" r:id="rId9"/>
-    <sheet name="arabidopsis_genetic_multiplex.e" sheetId="3" r:id="rId10"/>
-    <sheet name="cS-Aarhus_multiplex.edges" sheetId="2" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Networks!$A$1:$A$110</definedName>
@@ -40,12 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="11">
   <si>
     <t>f-e</t>
-  </si>
-  <si>
-    <t>cS-Aarhus_multiplex.edges</t>
   </si>
   <si>
     <t>arabidopsis_genetic_multiplex.edges</t>
@@ -58,6 +45,9 @@
   </si>
   <si>
     <t>cKM-Physicians-Innovation_multiplex.edges</t>
+  </si>
+  <si>
+    <t>cS-Aarhus_multiplex.edges</t>
   </si>
   <si>
     <t>drosophila_genetic_multiplex.edges</t>
@@ -1065,14 +1055,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="1" t="s">
@@ -1084,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.368955357142857</v>
+        <v>0.03204928693668</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1092,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.0313775242441529</v>
+        <v>0.424386852085967</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1100,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.410796460176991</v>
+        <v>0.0803155584814571</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1108,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.0757542242703533</v>
+        <v>0.176302670623145</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1116,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.174958456973294</v>
+        <v>0.369366071428571</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1124,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.116870008354219</v>
+        <v>0.121183792815372</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1132,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.0617674418604651</v>
+        <v>0.0655348837209302</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1140,7 +1130,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.0322028499580889</v>
+        <v>0.0324090528080469</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1148,7 +1138,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.560971698113208</v>
+        <v>0.569537735849057</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1156,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.0560551639595464</v>
-      </c>
-    </row>
-    <row r="12" hidden="1" spans="2:2">
+        <v>0.059207477781183</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>0.365267857142857</v>
+        <v>0.042606731317741</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1177,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>0.0405515116942384</v>
+        <v>0.487737041719343</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1185,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>0.477908975979772</v>
+        <v>0.0965771340794382</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1193,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>0.0931520737327189</v>
+        <v>0.176952522255193</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1201,7 +1191,7 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>0.176077151335312</v>
+        <v>0.372321428571429</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1209,7 +1199,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>0.164309941520468</v>
+        <v>0.168434586466165</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1217,7 +1207,7 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0.0652558139534884</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1225,7 +1215,7 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>0.04318692372171</v>
+        <v>0.0437082984073764</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1233,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="B21">
-        <v>0.560311320754717</v>
+        <v>0.575877358490566</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1241,10 +1231,10 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>0.0744002451731535</v>
-      </c>
-    </row>
-    <row r="23" hidden="1" spans="2:2">
+        <v>0.0769077536009807</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>0.363080357142857</v>
+        <v>0.0554359383913291</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1262,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>0.0536038790644609</v>
+        <v>0.525094816687737</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1270,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>0.516670037926675</v>
+        <v>0.11966337502743</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1278,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>0.116847926267281</v>
+        <v>0.186430267062314</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1286,7 +1276,7 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>0.185421364985163</v>
+        <v>0.374892857142857</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1294,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>0.18632030075188</v>
+        <v>0.191656474519632</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1302,7 +1292,7 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>0.0769457364341085</v>
+        <v>0.0796899224806202</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1310,7 +1300,7 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <v>0.0509807208717519</v>
+        <v>0.0513931265716681</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1318,7 +1308,7 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <v>0.647405660377358</v>
+        <v>0.667735849056604</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1326,10 +1316,10 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>0.0871326999693534</v>
-      </c>
-    </row>
-    <row r="34" hidden="1" spans="2:2">
+        <v>0.0894606190622127</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>0.410946428571428</v>
+        <v>0.0773599543639475</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1347,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="B36">
-        <v>0.0752746149458072</v>
+        <v>0.56982806573957</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1355,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>0.555087231352718</v>
+        <v>0.129666008338819</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1363,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="B38">
-        <v>0.125716041255212</v>
+        <v>0.186706231454006</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1371,7 +1361,7 @@
         <v>5</v>
       </c>
       <c r="B39">
-        <v>0.186035608308605</v>
+        <v>0.412875</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1379,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="B40">
-        <v>0.211762573099415</v>
+        <v>0.218260651629073</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1387,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="B41">
-        <v>0.0952868217054263</v>
+        <v>0.0942325581395349</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1395,7 +1385,7 @@
         <v>8</v>
       </c>
       <c r="B42">
-        <v>0.0593813914501257</v>
+        <v>0.0600318524727578</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1403,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="B43">
-        <v>0.647009433962264</v>
+        <v>0.665566037735849</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1411,10 +1401,10 @@
         <v>10</v>
       </c>
       <c r="B44">
-        <v>0.104267851670242</v>
-      </c>
-    </row>
-    <row r="45" hidden="1" spans="2:2">
+        <v>0.10758443150475</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>0.461732142857143</v>
+        <v>0.0930224757558471</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1432,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="B47">
-        <v>0.0907103251568739</v>
+        <v>0.57819216182048</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1440,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>0.567709228824273</v>
+        <v>0.137199912222954</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1448,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="B49">
-        <v>0.134191353960939</v>
+        <v>0.189620178041543</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1456,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="B50">
-        <v>0.189222551928783</v>
+        <v>0.467348214285714</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1464,7 +1454,7 @@
         <v>6</v>
       </c>
       <c r="B51">
-        <v>0.235133333333333</v>
+        <v>0.241093065998329</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1472,7 +1462,7 @@
         <v>7</v>
       </c>
       <c r="B52">
-        <v>0.132248062015504</v>
+        <v>0.128868217054263</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1480,7 +1470,7 @@
         <v>8</v>
       </c>
       <c r="B53">
-        <v>0.0663369656328583</v>
+        <v>0.0665029337803856</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1488,7 +1478,7 @@
         <v>9</v>
       </c>
       <c r="B54">
-        <v>0.715962264150943</v>
+        <v>0.726905660377358</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1496,10 +1486,10 @@
         <v>10</v>
       </c>
       <c r="B55">
-        <v>0.113678210235979</v>
-      </c>
-    </row>
-    <row r="56" hidden="1" spans="2:2">
+        <v>0.116878332822556</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="B57">
-        <v>0.461535714285714</v>
+        <v>0.100942384483742</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1517,7 +1507,7 @@
         <v>2</v>
       </c>
       <c r="B58">
-        <v>0.0982662863662293</v>
+        <v>0.597570164348925</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1525,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="B59">
-        <v>0.588594184576485</v>
+        <v>0.148865920561773</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1533,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="B60">
-        <v>0.145899056396752</v>
+        <v>0.190412462908012</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1541,7 +1531,7 @@
         <v>5</v>
       </c>
       <c r="B61">
-        <v>0.189703264094955</v>
+        <v>0.468696428571429</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1549,7 +1539,7 @@
         <v>6</v>
       </c>
       <c r="B62">
-        <v>0.252794319131161</v>
+        <v>0.258373934837093</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1557,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="B63">
-        <v>0.127426356589147</v>
+        <v>0.126806201550388</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1565,7 +1555,7 @@
         <v>8</v>
       </c>
       <c r="B64">
-        <v>0.0716730930427494</v>
+        <v>0.0729455155071249</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1573,7 +1563,7 @@
         <v>9</v>
       </c>
       <c r="B65">
-        <v>0.755415094339623</v>
+        <v>0.762943396226415</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1581,10 +1571,10 @@
         <v>10</v>
       </c>
       <c r="B66">
-        <v>0.133027275513331</v>
-      </c>
-    </row>
-    <row r="67" hidden="1" spans="2:2">
+        <v>0.13600796812749</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
@@ -1594,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="B68">
-        <v>0.513321428571429</v>
+        <v>0.112310325156874</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1602,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="B69">
-        <v>0.109177866514547</v>
+        <v>0.617719342604298</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1610,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="B70">
-        <v>0.607003792667509</v>
+        <v>0.156313364055299</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1618,7 +1608,7 @@
         <v>4</v>
       </c>
       <c r="B71">
-        <v>0.152027210884354</v>
+        <v>0.190359050445104</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1626,7 +1616,7 @@
         <v>5</v>
       </c>
       <c r="B72">
-        <v>0.189878338278932</v>
+        <v>0.520982142857143</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1634,7 +1624,7 @@
         <v>6</v>
       </c>
       <c r="B73">
-        <v>0.263407184628237</v>
+        <v>0.269508270676692</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1642,7 +1632,7 @@
         <v>7</v>
       </c>
       <c r="B74">
-        <v>0.157720930232558</v>
+        <v>0.158635658914729</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1650,7 +1640,7 @@
         <v>8</v>
       </c>
       <c r="B75">
-        <v>0.0826940486169321</v>
+        <v>0.083661357921207</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1658,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="B76">
-        <v>0.750235849056604</v>
+        <v>0.764688679245283</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1666,10 +1656,10 @@
         <v>10</v>
       </c>
       <c r="B77">
-        <v>0.142315660435182</v>
-      </c>
-    </row>
-    <row r="78" hidden="1" spans="2:2">
+        <v>0.14438063132087</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
       <c r="B78" s="1" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="B79">
-        <v>0.515526785714286</v>
+        <v>0.119591785510553</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1687,7 +1677,7 @@
         <v>2</v>
       </c>
       <c r="B80">
-        <v>0.11643126069595</v>
+        <v>0.627572692793932</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1695,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="B81">
-        <v>0.616359039190898</v>
+        <v>0.160843537414966</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1703,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>0.158455123985078</v>
+        <v>0.190364985163205</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1711,7 +1701,7 @@
         <v>5</v>
       </c>
       <c r="B83">
-        <v>0.190011869436202</v>
+        <v>0.522839285714286</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1719,7 +1709,7 @@
         <v>6</v>
       </c>
       <c r="B84">
-        <v>0.27456157059315</v>
+        <v>0.27952380952381</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1727,7 +1717,7 @@
         <v>7</v>
       </c>
       <c r="B85">
-        <v>0.16877519379845</v>
+        <v>0.17122480620155</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1735,7 +1725,7 @@
         <v>8</v>
       </c>
       <c r="B86">
-        <v>0.0891433361274099</v>
+        <v>0.0904358759430008</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1743,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="B87">
-        <v>0.778207547169811</v>
+        <v>0.786311320754717</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1751,10 +1741,10 @@
         <v>10</v>
       </c>
       <c r="B88">
-        <v>0.147768924302789</v>
-      </c>
-    </row>
-    <row r="89" hidden="1" spans="2:2">
+        <v>0.15089488201042</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
       <c r="B89" s="1" t="s">
         <v>0</v>
       </c>
@@ -1764,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="B90">
-        <v>0.635723214285714</v>
+        <v>0.127676440387906</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1772,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="B91">
-        <v>0.125042099258414</v>
+        <v>0.645228824273072</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1780,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="B92">
-        <v>0.63187610619469</v>
+        <v>0.170243142418258</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1788,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>0.166767171384683</v>
+        <v>0.190572700296736</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1796,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="B94">
-        <v>0.190014836795252</v>
+        <v>0.644116071428571</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1804,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="B95">
-        <v>0.283418379281537</v>
+        <v>0.288616374269006</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1812,7 +1802,7 @@
         <v>7</v>
       </c>
       <c r="B96">
-        <v>0.175457364341085</v>
+        <v>0.179968992248062</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1820,7 +1810,7 @@
         <v>8</v>
       </c>
       <c r="B97">
-        <v>0.0974568315171836</v>
+        <v>0.098918692372171</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1828,7 +1818,7 @@
         <v>9</v>
       </c>
       <c r="B98">
-        <v>0.800707547169811</v>
+        <v>0.806377358490566</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1836,10 +1826,10 @@
         <v>10</v>
       </c>
       <c r="B99">
-        <v>0.158190009193993</v>
-      </c>
-    </row>
-    <row r="100" hidden="1" spans="2:2">
+        <v>0.160960465828992</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
       <c r="B100" s="1" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="B101">
-        <v>0.649026785714286</v>
+        <v>0.145435938391329</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1857,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="B102">
-        <v>0.142737022247576</v>
+        <v>0.654457648546144</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1865,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="B103">
-        <v>0.640589127686473</v>
+        <v>0.179032258064516</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1873,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="B104">
-        <v>0.175580425718674</v>
+        <v>0.190649851632048</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1881,7 +1871,7 @@
         <v>5</v>
       </c>
       <c r="B105">
-        <v>0.190222551928783</v>
+        <v>0.657035714285714</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1889,7 +1879,7 @@
         <v>6</v>
       </c>
       <c r="B106">
-        <v>0.29361470342523</v>
+        <v>0.299909941520468</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1897,7 +1887,7 @@
         <v>7</v>
       </c>
       <c r="B107">
-        <v>0.200201550387597</v>
+        <v>0.20415503875969</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1905,7 +1895,7 @@
         <v>8</v>
       </c>
       <c r="B108">
-        <v>0.109510477787091</v>
+        <v>0.110779547359598</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1913,7 +1903,7 @@
         <v>9</v>
       </c>
       <c r="B109">
-        <v>0.813990566037736</v>
+        <v>0.821283018867925</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1921,1048 +1911,14 @@
         <v>10</v>
       </c>
       <c r="B110">
-        <v>0.165631627336807</v>
+        <v>0.167931351517009</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A110" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="celegans_genetic_multiplex.edges"/>
-        <filter val="celegans_connectome_multiplex.edges"/>
-        <filter val="arabidopsis_genetic_multiplex.edges"/>
-        <filter val="lazega-Law-Firm_multiplex.edges"/>
-        <filter val="cKM-Physicians-Innovation_multiplex.edges"/>
-        <filter val="humanHIV1_genetic_multiplex.edges"/>
-        <filter val="drosophila_genetic_multiplex.edges"/>
-        <filter val="hepatitusC_genetic_multiplex.edges"/>
-        <filter val="rattus_genetic_multiplex.edges"/>
-        <filter val="cS-Aarhus_multiplex.edges"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0.0313775242441529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.0405515116942384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.0536038790644609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0.0752746149458072</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>0.0907103251568739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>0.0982662863662293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>0.109177866514547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>0.11643126069595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>0.125042099258414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>0.142737022247576</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B2:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.368955357142857</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.365267857142857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.363080357142857</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0.410946428571428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0.461732142857143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0.461535714285714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0.513321428571429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0.515526785714286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0.635723214285714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0.649026785714286</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B2:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0.0560551639595464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>0.0744002451731535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.0871326999693534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0.104267851670242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.113678210235979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>0.133027275513331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.142315660435182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.147768924302789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0.158190009193993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.165631627336807</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B2:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>0.560971698113208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.560311320754717</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>0.647405660377358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0.647009433962264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0.715962264150943</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.755415094339623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.750235849056604</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>0.778207547169811</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.800707547169811</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.813990566037736</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B2:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>0.0322028499580889</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0.04318692372171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0.0509807208717519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.0593813914501257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.0663369656328583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.0716730930427494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0.0826940486169321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.0891433361274099</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.0974568315171836</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>0.109510477787091</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>0.0617674418604651</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0.0652558139534884</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.0769457364341085</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.0952868217054263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0.132248062015504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0.127426356589147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.157720930232558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.16877519379845</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>0.175457364341085</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0.200201550387597</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B2:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>0.116870008354219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0.164309941520468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.18632030075188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.211762573099415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0.235133333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.252794319131161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.263407184628237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>0.27456157059315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>0.283418379281537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>0.29361470342523</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B2:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0.174958456973294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.176077151335312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.185421364985163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0.186035608308605</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.189222551928783</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.189703264094955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>0.189878338278932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>0.190011869436202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>0.190014836795252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>0.190222551928783</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B2:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0.0757542242703533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.0931520737327189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.116847926267281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.125716041255212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.134191353960939</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>0.145899056396752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>0.152027210884354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>0.158455123985078</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>0.166767171384683</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>0.175580425718674</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B2:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.410796460176991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0.477908975979772</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.516670037926675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.555087231352718</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0.567709228824273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>0.588594184576485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>0.607003792667509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>0.616359039190898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>0.63187610619469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>0.640589127686473</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>